--- a/biology/Botanique/Helianthemum_canum/Helianthemum_canum.xlsx
+++ b/biology/Botanique/Helianthemum_canum/Helianthemum_canum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hélianthème blanchâtre, Hélianthème blanc
 Helianthemum canum, l'Hélianthème blanchâtre ou Hélianthème blanc est une plante du genre Helianthemum et de la famille des Cistacées.
@@ -512,7 +524,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Helianthemum oelandicum subsp. incanum (Willkomen) López González</t>
         </is>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Petit plante haute de 10 à 20 cm, aux tiges ramifiées au sommet et ligneuses à la base, portant de petites feuilles allongées, molles, blanches cotonneuses en dessous. Petites fleurs (8 à 15 mm), disposées en grappes de 3 à 5. Floraison de mai à aout.
 </t>
@@ -573,7 +589,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Rochers, pelouses rocailleuses, éboulis dans des lieux ensoleillés, sur terrain calcaire jusqu'à 1 700 m en montagne.
 </t>
